--- a/ClosedToMatured.xlsx
+++ b/ClosedToMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Cust ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Credit Amount</t>
   </si>
   <si>
-    <t>18010119160</t>
-  </si>
-  <si>
     <t>18030100304</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>18030001747</t>
   </si>
   <si>
-    <t>Al Modina Pharmacy</t>
-  </si>
-  <si>
     <t>Sathi Pharmacy</t>
   </si>
   <si>
@@ -73,33 +67,30 @@
     <t>Holy Crescent Hospital</t>
   </si>
   <si>
+    <t xml:space="preserve">Raipura Hospita Gate Raipura                                </t>
+  </si>
+  <si>
     <t xml:space="preserve">Station Road Narshingdi                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Raipura Hospita Gate Raipura                                </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sadar Hospital B Baria                                      </t>
   </si>
   <si>
     <t xml:space="preserve">Gorur Hater More Madhabdi                                   </t>
   </si>
   <si>
+    <t xml:space="preserve">BB43                                                        </t>
+  </si>
+  <si>
     <t xml:space="preserve">BB12                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">BB43                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">BB71                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">BB13                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV180-388541     </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV180-388934     </t>
   </si>
   <si>
@@ -110,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKINV180-389586     </t>
-  </si>
-  <si>
-    <t>18 Sep 2020</t>
   </si>
   <si>
     <t>19 Sep 2020</t>
@@ -479,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +522,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -555,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9952.700000000001</v>
+        <v>9417.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -566,19 +554,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -587,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>9417.5</v>
+        <v>6969.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -598,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -607,10 +595,10 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -619,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>6969.71</v>
+        <v>34687.8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -630,59 +618,27 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>34687.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
         <v>7392.44</v>
       </c>
     </row>
